--- a/Docs/MoSCoW.xlsx
+++ b/Docs/MoSCoW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\OneDrive\School Radius\Leerjaar2\P5\Project\Barroc-it-groep5\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Leerjaar 2017_2018\VHT_PHP\Project Barroc\Barroc-it-groep5\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7851653-5B65-4343-9694-B380064E7943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7DCF1-75ED-4B3B-BE3B-8851D1CE506F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{A7047E63-E707-41DB-BD9C-02B0ADFFEBD5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Must have</t>
   </si>
@@ -141,13 +141,19 @@
   </si>
   <si>
     <t>De applicatie is in het engels</t>
+  </si>
+  <si>
+    <t>Development heeft een overzicht van alle afspraken</t>
+  </si>
+  <si>
+    <t>Alle afspraken zijn geordent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +192,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -424,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -462,9 +475,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,7 +495,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -778,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA067F39-52A9-4C7A-AD20-881335903FFF}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1127,16 +1142,20 @@
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="29"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
     </row>

--- a/Docs/MoSCoW.xlsx
+++ b/Docs/MoSCoW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Leerjaar 2017_2018\VHT_PHP\Project Barroc\Barroc-it-groep5\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brisi\Dropbox\Leerjaar 2017_2018\VHT_PHP\Project Barroc\Barroc-it-groep5\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7DCF1-75ED-4B3B-BE3B-8851D1CE506F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9827245A-AA72-4084-B4B8-34A43580A402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{A7047E63-E707-41DB-BD9C-02B0ADFFEBD5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Must have</t>
   </si>
@@ -104,9 +104,6 @@
     <t>er is een zoekfunctie die klant gegevens weergeeft</t>
   </si>
   <si>
-    <t xml:space="preserve">Er wordt een BKR check uitgevoerd </t>
-  </si>
-  <si>
     <t>het platform van de applicatie is het web</t>
   </si>
   <si>
@@ -146,14 +143,20 @@
     <t>Development heeft een overzicht van alle afspraken</t>
   </si>
   <si>
-    <t>Alle afspraken zijn geordent</t>
+    <t>Er wordt een BKR check uitgevoerd zodra de klant ingevoerd word</t>
+  </si>
+  <si>
+    <t>Financien heeft een overzicht met welke nieuwe klanten er nog gecheckt moeten worden op BKR</t>
+  </si>
+  <si>
+    <t>Alle afspraken zijn geordent volgens vereisten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +202,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -437,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -477,6 +493,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA067F39-52A9-4C7A-AD20-881335903FFF}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -827,7 +848,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -836,7 +857,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
@@ -854,7 +875,7 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -863,16 +884,16 @@
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -892,8 +913,8 @@
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
@@ -908,11 +929,11 @@
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="32"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,14 +985,14 @@
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -980,7 +1001,7 @@
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -989,16 +1010,16 @@
     </row>
     <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="21"/>
       <c r="D21" s="28"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="21"/>
@@ -1006,160 +1027,142 @@
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>29</v>
+      <c r="A25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
+    <row r="26" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+    <row r="27" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
+    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="B32" s="35"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+    <row r="33" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
+    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+    <row r="36" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>